--- a/dati_soci.xlsx
+++ b/dati_soci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -40,91 +40,28 @@
     <t>inviato</t>
   </si>
   <si>
-    <t>Salvatore Maria</t>
-  </si>
-  <si>
-    <t>Gregorio</t>
-  </si>
-  <si>
-    <t>Luigi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salvo </t>
-  </si>
-  <si>
-    <t>Alessandro</t>
-  </si>
-  <si>
-    <t>nino</t>
-  </si>
-  <si>
-    <t>Alfredo</t>
-  </si>
-  <si>
-    <t>Giuseppe</t>
-  </si>
-  <si>
-    <t>Zuccarello</t>
-  </si>
-  <si>
-    <t>Passanello</t>
-  </si>
-  <si>
-    <t>Simonetti</t>
-  </si>
-  <si>
-    <t>Bongiorno</t>
-  </si>
-  <si>
-    <t>campione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minerva </t>
-  </si>
-  <si>
-    <t>Cangemi</t>
-  </si>
-  <si>
-    <t>carel@prova.it</t>
-  </si>
-  <si>
-    <t>passa@prova.it</t>
-  </si>
-  <si>
-    <t>simo@prova.it</t>
-  </si>
-  <si>
-    <t>care@prova.it</t>
-  </si>
-  <si>
-    <t>bongi@prova.it</t>
-  </si>
-  <si>
-    <t>campione@nino.it</t>
-  </si>
-  <si>
-    <t>min@erva.it</t>
-  </si>
-  <si>
-    <t>giuseppecangemi94@gmail.com</t>
-  </si>
-  <si>
-    <t>driver-screenshot.png</t>
-  </si>
-  <si>
-    <t>derryrockfoto.jpg</t>
-  </si>
-  <si>
-    <t>E7y3_yvWQAE8z2V.jpeg</t>
-  </si>
-  <si>
-    <t>derryrockpubfidelity.png</t>
-  </si>
-  <si>
-    <t>IMG_8151.jpeg</t>
-  </si>
-  <si>
-    <t>qrcode_google_form.png</t>
+    <t>ga</t>
+  </si>
+  <si>
+    <t>kfj\kdk</t>
+  </si>
+  <si>
+    <t>jsj</t>
+  </si>
+  <si>
+    <t>kdkdk</t>
+  </si>
+  <si>
+    <t>dwskds@sjkds.it</t>
+  </si>
+  <si>
+    <t>kkkd@skla.irt</t>
+  </si>
+  <si>
+    <t>Screenshot 2024-10-20 alle 22.11.34.png</t>
+  </si>
+  <si>
+    <t>Screenshot 2024-10-21 alle 20.27.06.png</t>
   </si>
   <si>
     <t>SI</t>
@@ -485,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,362 +456,45 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
+      <c r="H3" t="s">
         <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/dati_soci.xlsx
+++ b/dati_soci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -40,28 +40,16 @@
     <t>inviato</t>
   </si>
   <si>
-    <t>ga</t>
-  </si>
-  <si>
-    <t>kfj\kdk</t>
-  </si>
-  <si>
-    <t>jsj</t>
-  </si>
-  <si>
-    <t>kdkdk</t>
-  </si>
-  <si>
-    <t>dwskds@sjkds.it</t>
-  </si>
-  <si>
-    <t>kkkd@skla.irt</t>
+    <t xml:space="preserve"> w</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>w@ww.it</t>
   </si>
   <si>
     <t>Screenshot 2024-10-20 alle 22.11.34.png</t>
-  </si>
-  <si>
-    <t>Screenshot 2024-10-21 alle 20.27.06.png</t>
   </si>
   <si>
     <t>SI</t>
@@ -422,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,45 +444,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
+      <c r="G2">
+        <v>1201</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/dati_soci.xlsx
+++ b/dati_soci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -40,16 +40,16 @@
     <t>inviato</t>
   </si>
   <si>
-    <t xml:space="preserve"> w</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>w@ww.it</t>
-  </si>
-  <si>
-    <t>Screenshot 2024-10-20 alle 22.11.34.png</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>a@a.it</t>
+  </si>
+  <si>
+    <t>Screenshot 2024-08-30 alle 15.56.50.png</t>
+  </si>
+  <si>
+    <t>Screenshot 2024-10-21 alle 20.27.06.png</t>
   </si>
   <si>
     <t>SI</t>
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,27 +444,44 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>1201</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/dati_soci.xlsx
+++ b/dati_soci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>a@a.it</t>
-  </si>
-  <si>
-    <t>Screenshot 2024-08-30 alle 15.56.50.png</t>
   </si>
   <si>
     <t>Screenshot 2024-10-21 alle 20.27.06.png</t>
@@ -410,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +441,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -458,31 +455,14 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
+      <c r="G2">
         <v>1201</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
+      <c r="H2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/dati_soci.xlsx
+++ b/dati_soci.xlsx
@@ -40,10 +40,10 @@
     <t>inviato</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>a@a.it</t>
+    <t>b</t>
+  </si>
+  <si>
+    <t>b@b.it</t>
   </si>
   <si>
     <t>Screenshot 2024-10-21 alle 20.27.06.png</t>

--- a/dati_soci.xlsx
+++ b/dati_soci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -40,16 +40,19 @@
     <t>inviato</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
+    <t>c@c.it</t>
+  </si>
+  <si>
     <t>b@b.it</t>
   </si>
   <si>
     <t>Screenshot 2024-10-21 alle 20.27.06.png</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,19 +453,27 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="G2">
-        <v>1201</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/dati_soci.xlsx
+++ b/dati_soci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -40,19 +40,16 @@
     <t>inviato</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c@c.it</t>
-  </si>
-  <si>
-    <t>b@b.it</t>
+    <t>as</t>
+  </si>
+  <si>
+    <t>sa@as.it</t>
   </si>
   <si>
     <t>Screenshot 2024-10-21 alle 20.27.06.png</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -410,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,27 +450,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
+      <c r="G2">
+        <v>1201</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/dati_soci.xlsx
+++ b/dati_soci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -40,13 +40,22 @@
     <t>inviato</t>
   </si>
   <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>sa@as.it</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>a@a.it</t>
+  </si>
+  <si>
+    <t>s@s.it</t>
   </si>
   <si>
     <t>Screenshot 2024-10-21 alle 20.27.06.png</t>
+  </si>
+  <si>
+    <t>domenica_eliminatorie.png</t>
   </si>
   <si>
     <t>SI</t>
@@ -407,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,19 +459,36 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="G2">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
         <v>1201</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
+      <c r="H3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/dati_soci.xlsx
+++ b/dati_soci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -40,22 +40,85 @@
     <t>inviato</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>a@a.it</t>
-  </si>
-  <si>
-    <t>s@s.it</t>
-  </si>
-  <si>
-    <t>Screenshot 2024-10-21 alle 20.27.06.png</t>
-  </si>
-  <si>
-    <t>domenica_eliminatorie.png</t>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Giulia</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Francesco</t>
+  </si>
+  <si>
+    <t>giuseppe</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Rossi</t>
+  </si>
+  <si>
+    <t>Bianchi</t>
+  </si>
+  <si>
+    <t>Neri</t>
+  </si>
+  <si>
+    <t>Gallo</t>
+  </si>
+  <si>
+    <t>cangemi</t>
+  </si>
+  <si>
+    <t>Verdi</t>
+  </si>
+  <si>
+    <t>luca.rossi@example.com</t>
+  </si>
+  <si>
+    <t>giulia.bianchi@example.com</t>
+  </si>
+  <si>
+    <t>sara.neri@example.com</t>
+  </si>
+  <si>
+    <t>francesco.gallo@example.com</t>
+  </si>
+  <si>
+    <t>giuseppecangemi94@gmail.com</t>
+  </si>
+  <si>
+    <t>aaa@aaa.it</t>
+  </si>
+  <si>
+    <t>marco.verdi@example.com</t>
+  </si>
+  <si>
+    <t>file1.pdf</t>
+  </si>
+  <si>
+    <t>file2.pdf</t>
+  </si>
+  <si>
+    <t>file4.pdf</t>
+  </si>
+  <si>
+    <t>file5.pdf</t>
+  </si>
+  <si>
+    <t>Schermata 2021-09-24 alle 13.37.38.png</t>
+  </si>
+  <si>
+    <t>Schermata 2019-06-13 alle 19.28.40.png</t>
+  </si>
+  <si>
+    <t>file3.pdf</t>
   </si>
   <si>
     <t>SI</t>
@@ -416,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,13 +519,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -473,22 +536,116 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>1201</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="G3">
-        <v>1201</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>1202</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/dati_soci.xlsx
+++ b/dati_soci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1087,6 +1087,128 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Giuseppe</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Cangemi</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>giuseppecangemi94@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>derryrockfoto.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pinco </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Pallino</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>savvoz@pinko.com</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1000052151.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luca </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Era Gay</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LucaKastlewave@gmail.com</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1000052725.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Giuseppe</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cangemi</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>giuseppecangemi94@gmail.com</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>derryrockfoto.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1209</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dati_soci.xlsx
+++ b/dati_soci.xlsx
@@ -477,26 +477,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Giuseppe</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cangemi</t>
+          <t>Gallo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>giuseppecangemi94@gmail.com</t>
+          <t>francesco.gallo@example.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>derryrockpubfidelity.png</t>
+          <t>file5.pdf</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -505,16 +505,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Giuseppe</t>
+          <t>giuseppe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cangemi</t>
+          <t>cangemi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -524,73 +524,73 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>derryrockfoto.jpg</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>Schermata 2021-09-24 alle 13.37.38.png</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1201</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Salvo </t>
+          <t>aaa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Carel</t>
+          <t>aaa</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>sjskajja@sjjsja.it</t>
+          <t>aaa@aaa.it</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>IMG_8194.png</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1204</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
+          <t>Schermata 2019-06-13 alle 19.28.40.png</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Giuseppe</t>
+          <t>Marco</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cangemi</t>
+          <t>Verdi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>giuseppecangemi94@gmail.com</t>
+          <t>marco.verdi@example.com</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>derryrockfoto.jpg</t>
+          <t>file3.pdf</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -609,26 +609,26 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Giuseppe</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cangemi</t>
+          <t>Rossi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>giuseppecangemi94@gmail.com</t>
+          <t>luca.rossi@example.com</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>derryrockfoto.jpg</t>
+          <t>file1.pdf</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -647,54 +647,44 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>luca</t>
+          <t>Giuseppe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Santagati</t>
+          <t>Cangemi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>lucasantagati97@gmail.com</t>
+          <t>giuseppecangemi94@gmail.com</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>derryrockfoto.jpg</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1207</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
+          <t>IMG_8179.jpeg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Giuseppe</t>
+          <t>Prova!notte</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cangemi</t>
+          <t>Notte</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -704,7 +694,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BEAC11C7-4A7C-42F3-8F3C-B1D95C62DEAD.jpeg</t>
+          <t>IMG_8180.jpeg</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -713,64 +703,54 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>luca</t>
+          <t>Giuseppe</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Santagati</t>
+          <t>Cangemi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>lucasantagati97@gmail.com</t>
+          <t>giuseppecangemi94@gmail.com</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>derryrockpubfidelity.png</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1208</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
+          <t>IMG_8188.png</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>leccami le</t>
+          <t>Giuseppe</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>palle sudate a burino</t>
+          <t>Cangemi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>leccamilepallesudateaburini@sucuni.skunk</t>
+          <t>giuseppecangemi94@gmail.com</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>image.jpg</t>
+          <t>derryrockfoto.jpg</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -779,26 +759,26 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Giulia</t>
+          <t xml:space="preserve">Pinco </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Bianchi</t>
+          <t>Pallino</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>giulia.bianchi@example.com</t>
+          <t>savvoz@pinko.com</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>file2.pdf</t>
+          <t>1000052151.jpg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -807,26 +787,26 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sara</t>
+          <t xml:space="preserve">Luca </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Neri</t>
+          <t>Era Gay</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>sara.neri@example.com</t>
+          <t>LucaKastlewave@gmail.com</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>file4.pdf</t>
+          <t>1000052725.jpg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -835,44 +815,54 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Giuseppe</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Gallo</t>
+          <t>Cangemi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>francesco.gallo@example.com</t>
+          <t>giuseppecangemi94@gmail.com</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>file5.pdf</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+          <t>derryrockfoto.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1209</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>giuseppe</t>
+          <t>Giuseppe</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>cangemi</t>
+          <t>Cangemi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -882,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Schermata 2021-09-24 alle 13.37.38.png</t>
+          <t>BEAC11C7-4A7C-42F3-8F3C-B1D95C62DEAD.jpeg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -891,7 +881,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1201</v>
+        <v>1345</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -901,26 +891,26 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Giuseppe</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Cangemi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>aaa@aaa.it</t>
+          <t>giuseppecangemi94@gmail.com</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Schermata 2019-06-13 alle 19.28.40.png</t>
+          <t>derryrockpubfidelity.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -929,64 +919,54 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Marco</t>
+          <t>Giuseppe</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Verdi</t>
+          <t>Cangemi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>marco.verdi@example.com</t>
+          <t>giuseppecangemi94@gmail.com</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>file3.pdf</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1202</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
+          <t>derryrockfoto.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t xml:space="preserve">Salvo </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Rossi</t>
+          <t>Carel</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>luca.rossi@example.com</t>
+          <t>sjskajja@sjjsja.it</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>file1.pdf</t>
+          <t>IMG_8194.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -995,7 +975,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1005,7 +985,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1024,25 +1004,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>IMG_8179.jpeg</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+          <t>derryrockfoto.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1205</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Prova!notte</t>
+          <t>Giuseppe</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Notte</t>
+          <t>Cangemi</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1052,91 +1042,121 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>IMG_8180.jpeg</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+          <t>derryrockfoto.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1206</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Giuseppe</t>
+          <t>luca</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cangemi</t>
+          <t>Santagati</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>giuseppecangemi94@gmail.com</t>
+          <t>lucasantagati97@gmail.com</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>IMG_8188.png</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+          <t>derryrockfoto.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1207</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Giuseppe</t>
+          <t>luca</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cangemi</t>
+          <t>Santagati</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>giuseppecangemi94@gmail.com</t>
+          <t>lucasantagati97@gmail.com</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>derryrockfoto.jpg</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+          <t>derryrockpubfidelity.png</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1208</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pinco </t>
+          <t>leccami le</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Pallino</t>
+          <t>palle sudate a burino</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>savvoz@pinko.com</t>
+          <t>leccamilepallesudateaburini@sucuni.skunk</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1000052151.jpg</t>
+          <t>image.jpg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1145,26 +1165,26 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Luca </t>
+          <t>Giulia</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Era Gay</t>
+          <t>Bianchi</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LucaKastlewave@gmail.com</t>
+          <t>giulia.bianchi@example.com</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1000052725.jpg</t>
+          <t>file2.pdf</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1173,41 +1193,31 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Giuseppe</t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cangemi</t>
+          <t>Neri</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>giuseppecangemi94@gmail.com</t>
+          <t>sara.neri@example.com</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>derryrockfoto.jpg</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1209</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
+          <t>file4.pdf</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dati_soci.xlsx
+++ b/dati_soci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,47 +474,63 @@
           <t>inviato</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>manuale</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Giuseppe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gallo</t>
+          <t>Cangemi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>francesco.gallo@example.com</t>
+          <t>giuseppecangemi94@gmail.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>file5.pdf</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>derryrockfoto.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1201</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>giuseppe</t>
+          <t>Giuseppe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cangemi</t>
+          <t>Cangemi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -524,7 +540,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Schermata 2021-09-24 alle 13.37.38.png</t>
+          <t>derryrockfoto.jpg</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -533,64 +549,84 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1201</v>
+        <v>6201</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Sì</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Giuseppe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Cangemi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>aaa@aaa.it</t>
+          <t>giuseppecangemi94@gmail.com</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Schermata 2019-06-13 alle 19.28.40.png</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>derryrockfoto.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3500</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Sì</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marco</t>
+          <t>Giuseppe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Verdi</t>
+          <t>Cangemi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>marco.verdi@example.com</t>
+          <t>giuseppecangemi94@gmail.com</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>file3.pdf</t>
+          <t>derryrockfoto.jpg</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -599,36 +635,37 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1202</v>
+        <v>3501</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>SI</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>Giuseppe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rossi</t>
+          <t>Cangemi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>luca.rossi@example.com</t>
+          <t>giuseppecangemi94@gmail.com</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>file1.pdf</t>
+          <t>derryrockpubfidelity.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -637,17 +674,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1203</v>
+        <v>7000</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>SI</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Sì</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -666,558 +708,23 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>IMG_8179.jpeg</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>9</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Prova!notte</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Notte</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>giuseppecangemi94@gmail.com</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>IMG_8180.jpeg</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>10</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Giuseppe</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Cangemi</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>giuseppecangemi94@gmail.com</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>IMG_8188.png</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>20</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Giuseppe</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Cangemi</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>giuseppecangemi94@gmail.com</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>derryrockfoto.jpg</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>21</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pinco </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Pallino</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>savvoz@pinko.com</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1000052151.jpg</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>22</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luca </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Era Gay</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>LucaKastlewave@gmail.com</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1000052725.jpg</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>23</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Giuseppe</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Cangemi</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>giuseppecangemi94@gmail.com</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>derryrockfoto.jpg</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1209</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>17</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Giuseppe</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Cangemi</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>giuseppecangemi94@gmail.com</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>BEAC11C7-4A7C-42F3-8F3C-B1D95C62DEAD.jpeg</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1345</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>12</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Giuseppe</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Cangemi</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>giuseppecangemi94@gmail.com</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>derryrockpubfidelity.png</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>13</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Giuseppe</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Cangemi</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>giuseppecangemi94@gmail.com</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>derryrockfoto.jpg</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>11</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salvo </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Carel</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>sjskajja@sjjsja.it</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>IMG_8194.png</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1204</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>14</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Giuseppe</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Cangemi</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>giuseppecangemi94@gmail.com</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>derryrockfoto.jpg</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1205</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>15</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Giuseppe</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Cangemi</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>giuseppecangemi94@gmail.com</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>derryrockfoto.jpg</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1206</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>16</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>luca</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Santagati</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>lucasantagati97@gmail.com</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>derryrockfoto.jpg</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1207</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>18</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>luca</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Santagati</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>lucasantagati97@gmail.com</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>derryrockpubfidelity.png</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1208</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>19</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>leccami le</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>palle sudate a burino</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>leccamilepallesudateaburini@sucuni.skunk</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>image.jpg</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Giulia</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Bianchi</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>giulia.bianchi@example.com</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>file2.pdf</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>4</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Sara</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Neri</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>sara.neri@example.com</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>file4.pdf</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>7001</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
